--- a/data/data-dictionary.xlsx
+++ b/data/data-dictionary.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me1tjrx\Projects\Templates\datascience-project-template\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me1tjrx\Projects\Templates\datascience-project-template\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62485F19-3055-483E-9958-9AFA12EE9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9740E7-BF22-4BD3-B154-DCA42DED0AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23040" yWindow="0" windowWidth="23040" windowHeight="25320" xr2:uid="{2365FFB1-F747-4565-A738-C344F8C5A595}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="3" xr2:uid="{2365FFB1-F747-4565-A738-C344F8C5A595}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Information" sheetId="6" r:id="rId1"/>
     <sheet name="Help" sheetId="5" r:id="rId2"/>
-    <sheet name="Bronze" sheetId="1" r:id="rId3"/>
-    <sheet name="Silver" sheetId="2" r:id="rId4"/>
-    <sheet name="Gold" sheetId="3" r:id="rId5"/>
+    <sheet name="Namespace" sheetId="7" r:id="rId3"/>
+    <sheet name="Bronze" sheetId="1" r:id="rId4"/>
+    <sheet name="Silver" sheetId="2" r:id="rId5"/>
+    <sheet name="Gold" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
   <si>
     <t>Attribute Name</t>
   </si>
@@ -51,9 +52,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t xml:space="preserve">The data dictionary collections the names, definitions and attributes about all the data elements being used or captured in the research project. It describes the meaning and purposes within the context of the project, and provides guidance on interpretation, accepted meanings and representation. </t>
   </si>
   <si>
@@ -316,20 +314,393 @@
   </si>
   <si>
     <t>AMRC Project Data Dictionary</t>
+  </si>
+  <si>
+    <t>Sampling rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset </t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Data Structure</t>
+  </si>
+  <si>
+    <t>Engineer/Analyst</t>
+  </si>
+  <si>
+    <t>Point of contact for the person who input this entry</t>
+  </si>
+  <si>
+    <t>local filepath/delta lake table etc</t>
+  </si>
+  <si>
+    <t>Where does this data originate - sensor/machine/person?</t>
+  </si>
+  <si>
+    <t>Format of the data - bool/str/int etc</t>
+  </si>
+  <si>
+    <t>Naming convention</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>float</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>./data/bronze/data.csv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20,000Hz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t.j.rooker@amrc.co.uk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time-series</t>
+    </r>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m/s2</t>
+    </r>
+  </si>
+  <si>
+    <t>The measurement unit for the attribute (N - newtons, A - amps etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The type of structure which the attribute is stored in, for e.g. a time-series, single entry or tabular format </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What sampling rate is the data acquired at </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accelerometers</t>
+    </r>
+  </si>
+  <si>
+    <t>Data source</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accelerometer-1</t>
+    </r>
+  </si>
+  <si>
+    <t>The group or type of data source/sensor which you are fixing the convention on</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accelerometer-[number]</t>
+    </r>
+  </si>
+  <si>
+    <t>A human readable description of the naming convention</t>
+  </si>
+  <si>
+    <t>The actual convention you are fixing. Add parameters in square brackets like [number] or [asset] where these may take multiple values for different equipment.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acceleration-1</t>
+    </r>
+  </si>
+  <si>
+    <t>A description on what the attribute is. Be clear and concise but include as much relevant detail as you can.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Assets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[facility]-[asset]-[type]</t>
+    </r>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>An interpretable example of a usage of this naming convention</t>
+  </si>
+  <si>
+    <t>Accelerometer sensor with a unique reference number</t>
+  </si>
+  <si>
+    <t>The facility in which the asset is located, an identifier for the equipment, what kind of tool it is followed by a unique reference number</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acceleration-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The value of acceleration sensor 1 positioned on the milling spindle of  AMRC-WFLM30G-Millturn-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The value of acceleration sensor 2 positioned on the turning spindle of  AMRC-WFLM30G-Millturn-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AMRC-WFLM30G-Millturn-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AMRC-WFLM30G-Millturn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,8 +771,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,8 +802,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -574,67 +968,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -649,15 +1047,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -973,214 +1381,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB3C0F9-1DB5-47D1-8E0B-FE869F5BC141}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73.6640625" customWidth="1"/>
     <col min="4" max="4" width="70.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6" t="s">
+    <row r="2" spans="2:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B2" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="2:4" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="C8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1192,761 +1447,188 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F6995B-9EDF-494C-A142-3C18CCBF4CA4}">
-  <dimension ref="A1:E119"/>
+  <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73.6640625" customWidth="1"/>
     <col min="4" max="4" width="70.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="9" t="s">
-        <v>56</v>
+    <row r="2" spans="3:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C2" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="C3" s="3"/>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="12" t="s">
+    </row>
+    <row r="5" spans="3:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="12" t="s">
+    </row>
+    <row r="10" spans="3:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="26" spans="2:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="C26" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:4" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="13"/>
+      <c r="C28" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="2"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="19" t="s">
+      <c r="C29" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="22" t="s">
+      <c r="D29" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="25" t="s">
+    </row>
+    <row r="30" spans="2:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B30" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="17" t="s">
+      <c r="C30" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B31" s="37"/>
+      <c r="C31" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="30" t="s">
+    </row>
+    <row r="32" spans="2:4" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="37"/>
+      <c r="C32" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D32" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="23" t="s">
+    </row>
+    <row r="34" spans="2:4" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="36"/>
+      <c r="C34" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1962,68 +1644,293 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C36D65B-E9AC-44C0-BA56-94AF9B2CD027}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDEDCAC-14FD-46EA-A39A-8DBBF846BAA4}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.77734375" customWidth="1"/>
+    <col min="8" max="8" width="133.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G5" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C36D65B-E9AC-44C0-BA56-94AF9B2CD027}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="88" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H2" s="33" t="s">
+      <c r="F1" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="24" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H3" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H4" s="34" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M5" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H5" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>52</v>
+      <c r="N6" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M7" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M8" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M9" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M10" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2032,91 +1939,107 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD19A0E-FD4F-4461-ADEE-6B49E105DF90}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="104.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="113.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="37" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H2" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H3" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="20" t="s">
+      <c r="K6" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H4" s="34" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H5" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="K8" s="17" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H6" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H7" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2124,68 +2047,84 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35FF084-10EF-4734-98A5-64000C93605E}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F2" s="33" t="s">
+      <c r="E1" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F3" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F4" s="34" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H4" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="I5" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F5" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
